--- a/data/list_of_assets_dates.xlsx
+++ b/data/list_of_assets_dates.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\audrone.virbickaite\Documents\R\DMFP_IJF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\R\DMFP_IJF\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31AC1F51-0647-4E30-ACA3-21CBA8A17C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5892C0EB-7374-4A01-BD17-5C0AB95305C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AEB2FA3-6000-4170-B3B3-BE1752998B70}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{7AEB2FA3-6000-4170-B3B3-BE1752998B70}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$A$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$A$133</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="85">
   <si>
     <t>EUR/USD</t>
   </si>
@@ -285,13 +285,22 @@
   </si>
   <si>
     <t>XAU/GBP</t>
+  </si>
+  <si>
+    <t>is there any data?</t>
+  </si>
+  <si>
+    <t>Actual starting year</t>
+  </si>
+  <si>
+    <t>Number of assets</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,6 +312,14 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -350,13 +367,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,7 +394,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -671,19 +690,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7856A72-9369-4899-924F-E37DF6CEA5EE}">
-  <dimension ref="A1:P132"/>
+  <dimension ref="A1:P133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:P4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="4" max="16" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
       </c>
       <c r="D1">
         <v>2000</v>
@@ -706,7 +732,7 @@
       <c r="J1">
         <v>2006</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="5">
         <v>2007</v>
       </c>
       <c r="L1" s="3">
@@ -725,1026 +751,1087 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2">
+        <f>D1+1</f>
+        <v>2001</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:P2" si="0">E1+1</f>
+        <v>2002</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>2003</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>2004</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>2005</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>2006</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>2009</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>2010</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>2011</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>2012</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <f>LEFT(RIGHT(A2,LEN(A2)-1),4)</f>
+      <c r="B3" t="str">
+        <f>LEFT(RIGHT(A3,LEN(A3)-1),4)</f>
         <v>2000</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <f>COUNTIF($B:$B,D1)</f>
         <v>6</v>
       </c>
-      <c r="E2">
-        <f t="shared" ref="E2:P2" si="0">COUNTIF($B:$B,E1)</f>
+      <c r="E3">
+        <f>COUNTIF($B:$B,E1)</f>
         <v>0</v>
       </c>
-      <c r="F2">
-        <f t="shared" si="0"/>
+      <c r="F3">
+        <f>COUNTIF($B:$B,F1)</f>
         <v>8</v>
       </c>
-      <c r="G2">
-        <f t="shared" si="0"/>
+      <c r="G3">
+        <f>COUNTIF($B:$B,G1)</f>
         <v>0</v>
       </c>
-      <c r="H2">
-        <f t="shared" si="0"/>
+      <c r="H3">
+        <f>COUNTIF($B:$B,H1)</f>
         <v>0</v>
       </c>
-      <c r="I2">
-        <f t="shared" si="0"/>
+      <c r="I3">
+        <f>COUNTIF($B:$B,I1)</f>
         <v>1</v>
       </c>
-      <c r="J2">
-        <f t="shared" si="0"/>
+      <c r="J3">
+        <f>COUNTIF($B:$B,J1)</f>
         <v>1</v>
       </c>
-      <c r="K2" s="3">
-        <f t="shared" si="0"/>
+      <c r="K3" s="5">
+        <f>COUNTIF($B:$B,K1)</f>
         <v>6</v>
       </c>
-      <c r="L2" s="3">
-        <f t="shared" si="0"/>
+      <c r="L3" s="3">
+        <f>COUNTIF($B:$B,L1)</f>
         <v>15</v>
       </c>
-      <c r="M2" s="3">
-        <f t="shared" si="0"/>
+      <c r="M3" s="3">
+        <f>COUNTIF($B:$B,M1)</f>
         <v>6</v>
       </c>
-      <c r="N2" s="3">
-        <f t="shared" si="0"/>
+      <c r="N3" s="3">
+        <f>COUNTIF($B:$B,N1)</f>
         <v>23</v>
       </c>
-      <c r="O2" s="3">
-        <f t="shared" si="0"/>
+      <c r="O3" s="3">
+        <f>COUNTIF($B:$B,O1)</f>
         <v>0</v>
       </c>
-      <c r="P2" s="3">
-        <f t="shared" si="0"/>
+      <c r="P3" s="3">
+        <f>COUNTIF($B:$B,P1)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="D3">
-        <f>D2</f>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="4">
+        <f>D3</f>
         <v>6</v>
       </c>
-      <c r="E3">
-        <f>D3+E2</f>
+      <c r="E4" s="4">
+        <f>D4+E3</f>
         <v>6</v>
       </c>
-      <c r="F3">
-        <f t="shared" ref="F3:P3" si="1">E3+F2</f>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:P4" si="1">E4+F3</f>
         <v>14</v>
       </c>
-      <c r="G3">
+      <c r="G4" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="H3">
+      <c r="H4" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I3">
+      <c r="I4" s="4">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="J3">
+      <c r="J4" s="4">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K4" s="5">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L4" s="5">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M4" s="5">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N4" s="5">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O4" s="5">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P4" s="5">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <f>LEFT(RIGHT(A4,LEN(A4)-1),4)</f>
+      <c r="B5" t="str">
+        <f>LEFT(RIGHT(A5,LEN(A5)-1),4)</f>
         <v>2002</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="str">
-        <f>LEFT(RIGHT(A6,LEN(A6)-1),4)</f>
+      <c r="B7" t="str">
+        <f>LEFT(RIGHT(A7,LEN(A7)-1),4)</f>
         <v>2002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" t="str">
-        <f>LEFT(RIGHT(A8,LEN(A8)-1),4)</f>
+      <c r="B9" t="str">
+        <f>LEFT(RIGHT(A9,LEN(A9)-1),4)</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="str">
-        <f>LEFT(RIGHT(A10,LEN(A10)-1),4)</f>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="str">
+        <f>LEFT(RIGHT(A11,LEN(A11)-1),4)</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="str">
-        <f>LEFT(RIGHT(A12,LEN(A12)-1),4)</f>
+      <c r="B13" t="str">
+        <f>LEFT(RIGHT(A13,LEN(A13)-1),4)</f>
         <v>2002</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14" t="str">
-        <f>LEFT(RIGHT(A14,LEN(A14)-1),4)</f>
+      <c r="B15" t="str">
+        <f>LEFT(RIGHT(A15,LEN(A15)-1),4)</f>
         <v>2002</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B16" t="str">
-        <f>LEFT(RIGHT(A16,LEN(A16)-1),4)</f>
+      <c r="B17" t="str">
+        <f>LEFT(RIGHT(A17,LEN(A17)-1),4)</f>
         <v>2002</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="str">
-        <f>LEFT(RIGHT(A18,LEN(A18)-1),4)</f>
+      <c r="B19" t="str">
+        <f>LEFT(RIGHT(A19,LEN(A19)-1),4)</f>
         <v>2005</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B20" t="str">
-        <f>LEFT(RIGHT(A20,LEN(A20)-1),4)</f>
+      <c r="B21" t="str">
+        <f>LEFT(RIGHT(A21,LEN(A21)-1),4)</f>
         <v>2007</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B22" t="str">
-        <f>LEFT(RIGHT(A22,LEN(A22)-1),4)</f>
+      <c r="B23" t="str">
+        <f>LEFT(RIGHT(A23,LEN(A23)-1),4)</f>
         <v>2007</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="str">
-        <f>LEFT(RIGHT(A24,LEN(A24)-1),4)</f>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" t="str">
+        <f>LEFT(RIGHT(A25,LEN(A25)-1),4)</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B26" t="str">
-        <f>LEFT(RIGHT(A26,LEN(A26)-1),4)</f>
+      <c r="B27" t="str">
+        <f>LEFT(RIGHT(A27,LEN(A27)-1),4)</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B28" t="str">
-        <f>LEFT(RIGHT(A28,LEN(A28)-1),4)</f>
+      <c r="B29" t="str">
+        <f>LEFT(RIGHT(A29,LEN(A29)-1),4)</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B30" t="str">
-        <f>LEFT(RIGHT(A30,LEN(A30)-1),4)</f>
+      <c r="B31" t="str">
+        <f>LEFT(RIGHT(A31,LEN(A31)-1),4)</f>
         <v>2009</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="str">
-        <f>LEFT(RIGHT(A32,LEN(A32)-1),4)</f>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" t="str">
+        <f>LEFT(RIGHT(A33,LEN(A33)-1),4)</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="str">
-        <f>LEFT(RIGHT(A34,LEN(A34)-1),4)</f>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" t="str">
+        <f>LEFT(RIGHT(A35,LEN(A35)-1),4)</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="str">
-        <f>LEFT(RIGHT(A36,LEN(A36)-1),4)</f>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="str">
+        <f>LEFT(RIGHT(A37,LEN(A37)-1),4)</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="str">
-        <f>LEFT(RIGHT(A38,LEN(A38)-1),4)</f>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="str">
+        <f>LEFT(RIGHT(A39,LEN(A39)-1),4)</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" t="str">
-        <f>LEFT(RIGHT(A40,LEN(A40)-1),4)</f>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="str">
+        <f>LEFT(RIGHT(A41,LEN(A41)-1),4)</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B42" t="str">
-        <f>LEFT(RIGHT(A42,LEN(A42)-1),4)</f>
+      <c r="B43" t="str">
+        <f>LEFT(RIGHT(A43,LEN(A43)-1),4)</f>
         <v>2009</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="str">
-        <f>LEFT(RIGHT(A44,LEN(A44)-1),4)</f>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B45" t="str">
+        <f>LEFT(RIGHT(A45,LEN(A45)-1),4)</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" t="str">
-        <f>LEFT(RIGHT(A46,LEN(A46)-1),4)</f>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="str">
+        <f>LEFT(RIGHT(A47,LEN(A47)-1),4)</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B48" t="str">
-        <f>LEFT(RIGHT(A48,LEN(A48)-1),4)</f>
+      <c r="B49" t="str">
+        <f>LEFT(RIGHT(A49,LEN(A49)-1),4)</f>
         <v>2007</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" t="str">
-        <f>LEFT(RIGHT(A50,LEN(A50)-1),4)</f>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="str">
+        <f>LEFT(RIGHT(A51,LEN(A51)-1),4)</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
+    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B52" t="str">
-        <f>LEFT(RIGHT(A52,LEN(A52)-1),4)</f>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="B53" t="str">
+        <f>LEFT(RIGHT(A53,LEN(A53)-1),4)</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" t="str">
-        <f>LEFT(RIGHT(A54,LEN(A54)-1),4)</f>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="str">
+        <f>LEFT(RIGHT(A55,LEN(A55)-1),4)</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
+    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B56" t="str">
-        <f>LEFT(RIGHT(A56,LEN(A56)-1),4)</f>
+      <c r="B57" t="str">
+        <f>LEFT(RIGHT(A57,LEN(A57)-1),4)</f>
         <v>2007</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
+    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B58" t="str">
-        <f>LEFT(RIGHT(A58,LEN(A58)-1),4)</f>
+      <c r="B59" t="str">
+        <f>LEFT(RIGHT(A59,LEN(A59)-1),4)</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" t="str">
-        <f>LEFT(RIGHT(A60,LEN(A60)-1),4)</f>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="str">
+        <f>LEFT(RIGHT(A61,LEN(A61)-1),4)</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" t="str">
-        <f>LEFT(RIGHT(A62,LEN(A62)-1),4)</f>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" t="str">
+        <f>LEFT(RIGHT(A63,LEN(A63)-1),4)</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
+    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B64" t="str">
-        <f>LEFT(RIGHT(A64,LEN(A64)-1),4)</f>
+      <c r="B65" t="str">
+        <f>LEFT(RIGHT(A65,LEN(A65)-1),4)</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
+    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B66" t="str">
-        <f>LEFT(RIGHT(A66,LEN(A66)-1),4)</f>
+      <c r="B67" t="str">
+        <f>LEFT(RIGHT(A67,LEN(A67)-1),4)</f>
         <v>2009</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
+    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B68" t="str">
-        <f>LEFT(RIGHT(A68,LEN(A68)-1),4)</f>
+      <c r="B69" t="str">
+        <f>LEFT(RIGHT(A69,LEN(A69)-1),4)</f>
         <v>2002</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
+    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B70" t="str">
-        <f>LEFT(RIGHT(A70,LEN(A70)-1),4)</f>
+      <c r="B71" t="str">
+        <f>LEFT(RIGHT(A71,LEN(A71)-1),4)</f>
         <v>2002</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
+    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B72" t="str">
-        <f>LEFT(RIGHT(A72,LEN(A72)-1),4)</f>
+      <c r="B73" t="str">
+        <f>LEFT(RIGHT(A73,LEN(A73)-1),4)</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B74" t="str">
-        <f>LEFT(RIGHT(A74,LEN(A74)-1),4)</f>
+      <c r="B75" t="str">
+        <f>LEFT(RIGHT(A75,LEN(A75)-1),4)</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
+    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B76" t="str">
-        <f>LEFT(RIGHT(A76,LEN(A76)-1),4)</f>
+      <c r="B77" t="str">
+        <f>LEFT(RIGHT(A77,LEN(A77)-1),4)</f>
         <v>2002</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
+    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B78" t="str">
-        <f>LEFT(RIGHT(A78,LEN(A78)-1),4)</f>
+      <c r="B79" t="str">
+        <f>LEFT(RIGHT(A79,LEN(A79)-1),4)</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
+    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B80" t="str">
-        <f>LEFT(RIGHT(A80,LEN(A80)-1),4)</f>
+      <c r="B81" t="str">
+        <f>LEFT(RIGHT(A81,LEN(A81)-1),4)</f>
         <v>2000</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
+    <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B82" t="str">
-        <f>LEFT(RIGHT(A82,LEN(A82)-1),4)</f>
+      <c r="B83" t="str">
+        <f>LEFT(RIGHT(A83,LEN(A83)-1),4)</f>
         <v>2006</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
+    <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B84" t="str">
-        <f>LEFT(RIGHT(A84,LEN(A84)-1),4)</f>
+      <c r="B85" t="str">
+        <f>LEFT(RIGHT(A85,LEN(A85)-1),4)</f>
         <v>2009</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
+    <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B86" t="str">
-        <f>LEFT(RIGHT(A86,LEN(A86)-1),4)</f>
+      <c r="B87" t="str">
+        <f>LEFT(RIGHT(A87,LEN(A87)-1),4)</f>
         <v>2007</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+    <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B88" t="str">
-        <f>LEFT(RIGHT(A88,LEN(A88)-1),4)</f>
+      <c r="B89" t="str">
+        <f>LEFT(RIGHT(A89,LEN(A89)-1),4)</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
+    <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B90" t="str">
-        <f>LEFT(RIGHT(A90,LEN(A90)-1),4)</f>
+      <c r="B91" t="str">
+        <f>LEFT(RIGHT(A91,LEN(A91)-1),4)</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B92" t="str">
-        <f>LEFT(RIGHT(A92,LEN(A92)-1),4)</f>
+      <c r="B93" t="str">
+        <f>LEFT(RIGHT(A93,LEN(A93)-1),4)</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B94" t="str">
-        <f>LEFT(RIGHT(A94,LEN(A94)-1),4)</f>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+    <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" t="str">
+        <f>LEFT(RIGHT(A95,LEN(A95)-1),4)</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1" t="s">
+    <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B96" t="str">
-        <f>LEFT(RIGHT(A96,LEN(A96)-1),4)</f>
+      <c r="B97" t="str">
+        <f>LEFT(RIGHT(A97,LEN(A97)-1),4)</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98" t="str">
-        <f>LEFT(RIGHT(A98,LEN(A98)-1),4)</f>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+    <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" t="str">
+        <f>LEFT(RIGHT(A99,LEN(A99)-1),4)</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B100" t="str">
-        <f>LEFT(RIGHT(A100,LEN(A100)-1),4)</f>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+    <row r="101" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" t="str">
+        <f>LEFT(RIGHT(A101,LEN(A101)-1),4)</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="1" t="s">
+    <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B102" t="str">
-        <f>LEFT(RIGHT(A102,LEN(A102)-1),4)</f>
+      <c r="B103" t="str">
+        <f>LEFT(RIGHT(A103,LEN(A103)-1),4)</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B104" t="str">
-        <f>LEFT(RIGHT(A104,LEN(A104)-1),4)</f>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+    <row r="105" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" t="str">
+        <f>LEFT(RIGHT(A105,LEN(A105)-1),4)</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B106" t="str">
-        <f>LEFT(RIGHT(A106,LEN(A106)-1),4)</f>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+    <row r="107" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" t="str">
+        <f>LEFT(RIGHT(A107,LEN(A107)-1),4)</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B108" t="str">
-        <f>LEFT(RIGHT(A108,LEN(A108)-1),4)</f>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+    <row r="109" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" t="str">
+        <f>LEFT(RIGHT(A109,LEN(A109)-1),4)</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B110" t="str">
-        <f>LEFT(RIGHT(A110,LEN(A110)-1),4)</f>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+    <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" t="str">
+        <f>LEFT(RIGHT(A111,LEN(A111)-1),4)</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+    <row r="113" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B112" t="str">
-        <f>LEFT(RIGHT(A112,LEN(A112)-1),4)</f>
+      <c r="B113" t="str">
+        <f>LEFT(RIGHT(A113,LEN(A113)-1),4)</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="2" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+    <row r="115" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B114" t="str">
-        <f>LEFT(RIGHT(A114,LEN(A114)-1),4)</f>
+      <c r="B115" t="str">
+        <f>LEFT(RIGHT(A115,LEN(A115)-1),4)</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B116" t="str">
-        <f>LEFT(RIGHT(A116,LEN(A116)-1),4)</f>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+    <row r="117" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B117" t="str">
+        <f>LEFT(RIGHT(A117,LEN(A117)-1),4)</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
+    <row r="119" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B118" t="str">
-        <f>LEFT(RIGHT(A118,LEN(A118)-1),4)</f>
+      <c r="B119" t="str">
+        <f>LEFT(RIGHT(A119,LEN(A119)-1),4)</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
+    <row r="121" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B120" t="str">
-        <f>LEFT(RIGHT(A120,LEN(A120)-1),4)</f>
+      <c r="B121" t="str">
+        <f>LEFT(RIGHT(A121,LEN(A121)-1),4)</f>
         <v>2009</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
+    <row r="123" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B122" t="str">
-        <f>LEFT(RIGHT(A122,LEN(A122)-1),4)</f>
+      <c r="B123" t="str">
+        <f>LEFT(RIGHT(A123,LEN(A123)-1),4)</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
+    <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B124" t="str">
-        <f>LEFT(RIGHT(A124,LEN(A124)-1),4)</f>
+      <c r="B125" t="str">
+        <f>LEFT(RIGHT(A125,LEN(A125)-1),4)</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
+    <row r="127" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B126" t="str">
-        <f>LEFT(RIGHT(A126,LEN(A126)-1),4)</f>
+      <c r="B127" t="str">
+        <f>LEFT(RIGHT(A127,LEN(A127)-1),4)</f>
         <v>2007</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B128" t="str">
-        <f>LEFT(RIGHT(A128,LEN(A128)-1),4)</f>
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+    <row r="129" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B129" t="str">
+        <f>LEFT(RIGHT(A129,LEN(A129)-1),4)</f>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
+    <row r="131" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B130" t="str">
-        <f>LEFT(RIGHT(A130,LEN(A130)-1),4)</f>
+      <c r="B131" t="str">
+        <f>LEFT(RIGHT(A131,LEN(A131)-1),4)</f>
         <v>2008</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
+    <row r="133" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B132" t="str">
-        <f>LEFT(RIGHT(A132,LEN(A132)-1),4)</f>
+      <c r="B133" t="str">
+        <f>LEFT(RIGHT(A133,LEN(A133)-1),4)</f>
         <v>2009</v>
       </c>
     </row>
